--- a/dashboard_loader/indigenous_yr12_uploader/indigenous_yr12.xlsx
+++ b/dashboard_loader/indigenous_yr12_uploader/indigenous_yr12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">Proportion of the 20–24 year old Indigenous population having attained at least Year 12 or equivalent (an AQF Certificate II or above), by jurisdiction, 2006 to 2020 </t>
   </si>
@@ -86,41 +86,33 @@
     <t xml:space="preserve">Updated</t>
   </si>
   <si>
-    <t xml:space="preserve">2011 Census</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">This target is on track. At the national level in 2011, 53.9 per cent of Indigenous 20-24 year olds had achieved Year 12 or equivalent, an increase from 47.4 per cent in 2006. This result was above the 2011 trajectory point of 52.8 per cent and since 2006, the gap decreased between Indigenous and non-Indigenous attainment by 4.3 percentage points, as such this target is on track. Results for Western Australia, South Australia, the Australian Capital Territory, and the Northern Territory are also on track. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">More recent survey data can be used as a supplementary indicator. Nationally the proportion of Indigenous 20-24 year olds who had achieved Year 12 or equivalent increased from 45.4 per cent in 2008 to 61.5 per cent in 2014-15. Over the same period, the rates for non-Indigenous attainment did not change significantly (from 85.0 per cent to 86.4 per cent). This has resulted in the gap narrowing by 14.7 percentage points (from 39.6 to 24.9 percentage points). At the jurisdictional level, due to small numbers of 20-24 year olds in the survey sample, it is difficult to detect change over time. However, statistically significant increases were detected for the Australian Capital Territory, South Australia, New South Wales and Tasmania between 2008 and 2014-15.</t>
+    <t xml:space="preserve">This target is on track. At the national level in 2016, 65.3 per cent of Indigenous 20-24 year olds had achieved Year 12 or equivalent, an increase from 47.4 per cent in 2006. This result was above the 2016 trajectory point of 63.0 per cent and since 2006, the gap decreased between Indigenous and non-Indigenous attainment by 12.6 percentage points (from 36.4 to 23.8 percentage points). Results for Western Australia and the Northern Territory have reached the target and will meet the target if progress is sustained. South Australia and the Australian Capital Territory,  are on track. </t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Assessment of progress to achieve this target uses Census data which is only available every five years. Trajectories for this target are not in a straight line from the baseline to target year. This is to reflect the lag between policy interventions and their anticipated impact. In the interim, survey data is used as a supplementary indicator, which is updated every three years. The small sample size for this age cohort has affected the ability to detect significant changes at the jurisdictional level.</t>
+    <t xml:space="preserve">Assessment of progress to achieve this target uses Census data, available every five years. Trajectories for this target are not in a straight line from the baseline to target year. This is to reflect the lag between policy interventions and their anticipated impact.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Census data: ABS Census of Population and Housing 2006 and 2011 (Indigenous and non-Indigenous data).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey data: ABS National Aboriginal and Torres Strait Islander Social Survey (NATSISS) (2008 and 2014-15) and ABS Survey of Education and Work (SEW) (2008 and 2014)</t>
+    <t xml:space="preserve">ABS Census of Population and Housing 2006, 2011 and 2016 (Indigenous and non-Indigenous data).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,87 +136,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
@@ -238,78 +149,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF1A1A1A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -320,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,73 +204,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,44 +251,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -472,7 +284,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -488,7 +300,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -500,11 +312,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1A1A1A"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -515,25 +327,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2006</v>
       </c>
@@ -603,7 +415,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2006</v>
       </c>
@@ -638,7 +450,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2011</v>
       </c>
@@ -673,7 +485,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2011</v>
       </c>
@@ -708,38 +520,108 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>66.4134438305709</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>71.2784588441331</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>71.1871200480994</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>59.8643099446527</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>64.280303030303</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>65.6061437191443</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>78.3410138248848</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>39.1325185717709</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>65.2833356106892</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C9" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>81.5</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>80.8</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>59.5</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>69.9</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>80.7</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>30.2</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>69</v>
       </c>
     </row>
@@ -759,84 +641,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="130.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="109.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
